--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_InvalidCaseTypeId.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_InvalidCaseTypeId.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4655B6-0A8E-BF48-8130-A3D4E6997544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46632E-9032-314A-8DC9-667FC219D6D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="33600" windowHeight="20500" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,25 @@
     <sheet name="Category" sheetId="23" r:id="rId5"/>
     <sheet name="CaseField" sheetId="3" r:id="rId6"/>
     <sheet name="ComplexTypes" sheetId="4" r:id="rId7"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" state="hidden" r:id="rId8"/>
-    <sheet name="EventToComplexTypes" sheetId="20" state="hidden" r:id="rId9"/>
-    <sheet name="FixedLists" sheetId="5" state="hidden" r:id="rId10"/>
-    <sheet name="CaseTypeTab" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="State" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="CaseEvent" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="CaseEventToFields" sheetId="9" state="hidden" r:id="rId14"/>
-    <sheet name="SearchInputFields" sheetId="10" state="hidden" r:id="rId15"/>
-    <sheet name="SearchCasesResultFields" sheetId="25" state="hidden" r:id="rId16"/>
-    <sheet name="SearchResultFields" sheetId="11" state="hidden" r:id="rId17"/>
-    <sheet name="WorkBasketInputFields" sheetId="12" state="hidden" r:id="rId18"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" state="hidden" r:id="rId19"/>
-    <sheet name="UserProfile" sheetId="14" state="hidden" r:id="rId20"/>
-    <sheet name="AuthorisationCaseType" sheetId="15" state="hidden" r:id="rId21"/>
-    <sheet name="AuthorisationCaseField" sheetId="16" state="hidden" r:id="rId22"/>
-    <sheet name="CaseRoles" sheetId="19" state="hidden" r:id="rId23"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="17" state="hidden" r:id="rId24"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" state="hidden" r:id="rId25"/>
-    <sheet name="RoleToAccessProfiles" sheetId="27" state="hidden" r:id="rId26"/>
+    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId8"/>
+    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId9"/>
+    <sheet name="FixedLists" sheetId="5" r:id="rId10"/>
+    <sheet name="CaseTypeTab" sheetId="6" r:id="rId11"/>
+    <sheet name="State" sheetId="7" r:id="rId12"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId13"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId14"/>
+    <sheet name="SearchInputFields" sheetId="10" r:id="rId15"/>
+    <sheet name="SearchCasesResultFields" sheetId="25" r:id="rId16"/>
+    <sheet name="SearchResultFields" sheetId="11" r:id="rId17"/>
+    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId18"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId19"/>
+    <sheet name="UserProfile" sheetId="14" r:id="rId20"/>
+    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId21"/>
+    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId22"/>
+    <sheet name="CaseRoles" sheetId="19" r:id="rId23"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
+    <sheet name="RoleToAccessProfiles" sheetId="27" r:id="rId26"/>
     <sheet name="SearchParty" sheetId="30" r:id="rId27"/>
   </sheets>
   <externalReferences>
@@ -16541,6 +16541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -16635,6 +16636,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17247,6 +17249,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:CR96"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G82" workbookViewId="0">
@@ -20336,6 +20339,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:FH53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A42" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
@@ -21601,6 +21605,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F42" zoomScaleNormal="100" workbookViewId="0">
@@ -25078,6 +25083,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:T249"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K9" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
@@ -34839,6 +34845,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D57" workbookViewId="0">
@@ -36303,6 +36310,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C21FC67-1DAE-894F-850E-27C99E5D18CB}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36538,6 +36546,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:DS59"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D44" workbookViewId="0">
@@ -38072,6 +38081,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D55" workbookViewId="0">
@@ -39472,6 +39482,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:BL75"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A63" workbookViewId="0">
@@ -41188,6 +41199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD87C05-4433-0B47-8359-B17D583CFB7A}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41308,6 +41320,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -41445,6 +41458,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -42109,6 +42123,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D251" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -46967,6 +46982,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -47278,6 +47294,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:EK90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -49201,6 +49218,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:CF64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -50541,6 +50559,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46E332-1601-DB46-9E37-4B0D4219E272}">
+  <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51301,9 +51320,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2520D-B5D1-6249-96E1-C392AB55B40B}">
+  <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -51633,6 +51653,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -52351,10 +52372,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE0C02E-59B7-9148-BB65-087866DFAC16}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -52721,6 +52743,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E15BE1-896E-C94F-B2CD-122BE5CAB0E3}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
@@ -52971,6 +52994,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IO194"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -61009,6 +61033,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
@@ -64232,9 +64257,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A25AD-5D69-564D-9511-0323740C2E1F}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -65212,6 +65238,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O253"/>
   <sheetViews>
     <sheetView topLeftCell="A249" zoomScaleNormal="100" workbookViewId="0">
